--- a/python操作.xlsx
+++ b/python操作.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\95705\Desktop\学习\python课堂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820E681F-2683-4563-B795-3B3156A83841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB48E01-F160-4866-8257-ED4A9BE3FEDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34920" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="json" sheetId="1" r:id="rId1"/>
@@ -48,11 +48,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>”字符串“</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"及时雨“:”萧敬腾“}</t>
+    <t>{"及时雨":"萧敬腾"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"字符串"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +381,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -413,10 +413,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/python操作.xlsx
+++ b/python操作.xlsx
@@ -1,84 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22410"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\95705\Desktop\学习\python课堂\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB48E01-F160-4866-8257-ED4A9BE3FEDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="json" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="json" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>水电费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿斯蒂芬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去玩儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,2,3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>("hello",5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"及时雨":"萧敬腾"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"字符串"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -94,24 +51,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -377,67 +325,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" width="18.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>水电费</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>阿斯蒂芬</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>去玩儿</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[1,2,3]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>("hello",5)</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>{"及时雨":"萧敬腾"}</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>"字符串"</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DFB1C0-DCD1-4942-950A-37889E78B4A9}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>